--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gas6-Mertk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gas6-Mertk.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.651035</v>
+        <v>20.625387</v>
       </c>
       <c r="H2">
-        <v>35.30207</v>
+        <v>41.250774</v>
       </c>
       <c r="I2">
-        <v>0.132594799318665</v>
+        <v>0.2032696055682915</v>
       </c>
       <c r="J2">
-        <v>0.09359607745031152</v>
+        <v>0.1476696866573555</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.774897999999999</v>
+        <v>17.202144</v>
       </c>
       <c r="N2">
-        <v>15.549796</v>
+        <v>34.404288</v>
       </c>
       <c r="O2">
-        <v>0.07439327564760004</v>
+        <v>0.2117240820795693</v>
       </c>
       <c r="P2">
-        <v>0.05172958627105515</v>
+        <v>0.1576018899095424</v>
       </c>
       <c r="Q2">
-        <v>137.23499671943</v>
+        <v>354.800877229728</v>
       </c>
       <c r="R2">
-        <v>548.93998687772</v>
+        <v>1419.203508918912</v>
       </c>
       <c r="S2">
-        <v>0.009864161455151652</v>
+        <v>0.04303707065362264</v>
       </c>
       <c r="T2">
-        <v>0.00484168636309825</v>
+        <v>0.02327302169954916</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.651035</v>
+        <v>20.625387</v>
       </c>
       <c r="H3">
-        <v>35.30207</v>
+        <v>41.250774</v>
       </c>
       <c r="I3">
-        <v>0.132594799318665</v>
+        <v>0.2032696055682915</v>
       </c>
       <c r="J3">
-        <v>0.09359607745031152</v>
+        <v>0.1476696866573555</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.670866</v>
       </c>
       <c r="O3">
-        <v>0.005329167229726697</v>
+        <v>0.006855009277292444</v>
       </c>
       <c r="P3">
-        <v>0.005558478509581273</v>
+        <v>0.007654035432606467</v>
       </c>
       <c r="Q3">
-        <v>9.830838082103334</v>
+        <v>11.487419291714</v>
       </c>
       <c r="R3">
-        <v>58.98502849262001</v>
+        <v>68.924515750284</v>
       </c>
       <c r="S3">
-        <v>0.0007066198593612171</v>
+        <v>0.001393415031962214</v>
       </c>
       <c r="T3">
-        <v>0.0005202517850886611</v>
+        <v>0.001130269013997293</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.651035</v>
+        <v>20.625387</v>
       </c>
       <c r="H4">
-        <v>35.30207</v>
+        <v>41.250774</v>
       </c>
       <c r="I4">
-        <v>0.132594799318665</v>
+        <v>0.2032696055682915</v>
       </c>
       <c r="J4">
-        <v>0.09359607745031152</v>
+        <v>0.1476696866573555</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.39179933333333</v>
+        <v>18.06018933333333</v>
       </c>
       <c r="N4">
-        <v>118.175398</v>
+        <v>54.180568</v>
       </c>
       <c r="O4">
-        <v>0.3769161969789976</v>
+        <v>0.2222849087173801</v>
       </c>
       <c r="P4">
-        <v>0.3931347038866155</v>
+        <v>0.2481946411206788</v>
       </c>
       <c r="Q4">
-        <v>695.3060287456433</v>
+        <v>372.498394293272</v>
       </c>
       <c r="R4">
-        <v>4171.83617247386</v>
+        <v>2234.990365759632</v>
       </c>
       <c r="S4">
-        <v>0.04997712749838458</v>
+        <v>0.04518376571876555</v>
       </c>
       <c r="T4">
-        <v>0.03679586619337696</v>
+        <v>0.03665082488432543</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.651035</v>
+        <v>20.625387</v>
       </c>
       <c r="H5">
-        <v>35.30207</v>
+        <v>41.250774</v>
       </c>
       <c r="I5">
-        <v>0.132594799318665</v>
+        <v>0.2032696055682915</v>
       </c>
       <c r="J5">
-        <v>0.09359607745031152</v>
+        <v>0.1476696866573555</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.159665</v>
+        <v>8.242952500000001</v>
       </c>
       <c r="N5">
-        <v>10.31933</v>
+        <v>16.485905</v>
       </c>
       <c r="O5">
-        <v>0.04936969984612973</v>
+        <v>0.1014543042825354</v>
       </c>
       <c r="P5">
-        <v>0.03432936814698325</v>
+        <v>0.07551994056290817</v>
       </c>
       <c r="Q5">
-        <v>91.07342750327501</v>
+        <v>170.0140853351175</v>
       </c>
       <c r="R5">
-        <v>364.2937100131001</v>
+        <v>680.0563413404701</v>
       </c>
       <c r="S5">
-        <v>0.006546165443520297</v>
+        <v>0.02062257641471641</v>
       </c>
       <c r="T5">
-        <v>0.003213094199905302</v>
+        <v>0.01115200595930676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.651035</v>
+        <v>20.625387</v>
       </c>
       <c r="H6">
-        <v>35.30207</v>
+        <v>41.250774</v>
       </c>
       <c r="I6">
-        <v>0.132594799318665</v>
+        <v>0.2032696055682915</v>
       </c>
       <c r="J6">
-        <v>0.09359607745031152</v>
+        <v>0.1476696866573555</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.898325</v>
+        <v>5.489231</v>
       </c>
       <c r="N6">
-        <v>26.694975</v>
+        <v>16.467693</v>
       </c>
       <c r="O6">
-        <v>0.08514266611946944</v>
+        <v>0.06756148505661365</v>
       </c>
       <c r="P6">
-        <v>0.08880631053077227</v>
+        <v>0.0754365135895311</v>
       </c>
       <c r="Q6">
-        <v>157.064646016375</v>
+        <v>113.217513707397</v>
       </c>
       <c r="R6">
-        <v>942.38787609825</v>
+        <v>679.305082244382</v>
       </c>
       <c r="S6">
-        <v>0.01128947472756715</v>
+        <v>0.01373319641906588</v>
       </c>
       <c r="T6">
-        <v>0.008311922318514577</v>
+        <v>0.0111396863242894</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.651035</v>
+        <v>20.625387</v>
       </c>
       <c r="H7">
-        <v>35.30207</v>
+        <v>41.250774</v>
       </c>
       <c r="I7">
-        <v>0.132594799318665</v>
+        <v>0.2032696055682915</v>
       </c>
       <c r="J7">
-        <v>0.09359607745031152</v>
+        <v>0.1476696866573555</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.72912033333333</v>
+        <v>31.69646066666666</v>
       </c>
       <c r="N7">
-        <v>128.187361</v>
+        <v>95.08938199999999</v>
       </c>
       <c r="O7">
-        <v>0.4088489941780765</v>
+        <v>0.390120210586609</v>
       </c>
       <c r="P7">
-        <v>0.4264415526549925</v>
+        <v>0.4355929793847331</v>
       </c>
       <c r="Q7">
-        <v>754.2131985228783</v>
+        <v>653.7517677802779</v>
       </c>
       <c r="R7">
-        <v>4525.279191137271</v>
+        <v>3922.510606681667</v>
       </c>
       <c r="S7">
-        <v>0.05421125033468008</v>
+        <v>0.07929958133015884</v>
       </c>
       <c r="T7">
-        <v>0.03991325659032777</v>
+        <v>0.06432387877588744</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>105.757912</v>
       </c>
       <c r="I8">
-        <v>0.2648182598168894</v>
+        <v>0.3474257082297993</v>
       </c>
       <c r="J8">
-        <v>0.2803950511268952</v>
+        <v>0.378592598688601</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.774897999999999</v>
+        <v>17.202144</v>
       </c>
       <c r="N8">
-        <v>15.549796</v>
+        <v>34.404288</v>
       </c>
       <c r="O8">
-        <v>0.07439327564760004</v>
+        <v>0.2117240820795693</v>
       </c>
       <c r="P8">
-        <v>0.05172958627105515</v>
+        <v>0.1576018899095424</v>
       </c>
       <c r="Q8">
-        <v>274.0856594976586</v>
+        <v>606.420943787776</v>
       </c>
       <c r="R8">
-        <v>1644.513956985952</v>
+        <v>3638.525662726656</v>
       </c>
       <c r="S8">
-        <v>0.01970069779907562</v>
+        <v>0.07355838916579852</v>
       </c>
       <c r="T8">
-        <v>0.01450471998724564</v>
+        <v>0.05966690905908847</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>105.757912</v>
       </c>
       <c r="I9">
-        <v>0.2648182598168894</v>
+        <v>0.3474257082297993</v>
       </c>
       <c r="J9">
-        <v>0.2803950511268952</v>
+        <v>0.378592598688601</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.670866</v>
       </c>
       <c r="O9">
-        <v>0.005329167229726697</v>
+        <v>0.006855009277292444</v>
       </c>
       <c r="P9">
-        <v>0.005558478509581273</v>
+        <v>0.007654035432606467</v>
       </c>
       <c r="Q9">
         <v>19.63414437686578</v>
@@ -1013,10 +1013,10 @@
         <v>176.707299391792</v>
       </c>
       <c r="S9">
-        <v>0.001411260792049417</v>
+        <v>0.002381606453085172</v>
       </c>
       <c r="T9">
-        <v>0.001558569865881789</v>
+        <v>0.002897761164885113</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>105.757912</v>
       </c>
       <c r="I10">
-        <v>0.2648182598168894</v>
+        <v>0.3474257082297993</v>
       </c>
       <c r="J10">
-        <v>0.2803950511268952</v>
+        <v>0.378592598688601</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>39.39179933333333</v>
+        <v>18.06018933333333</v>
       </c>
       <c r="N10">
-        <v>118.175398</v>
+        <v>54.180568</v>
       </c>
       <c r="O10">
-        <v>0.3769161969789976</v>
+        <v>0.2222849087173801</v>
       </c>
       <c r="P10">
-        <v>0.3931347038866155</v>
+        <v>0.2481946411206788</v>
       </c>
       <c r="Q10">
-        <v>1388.664815805442</v>
+        <v>636.6693047393351</v>
       </c>
       <c r="R10">
-        <v>12497.98334224898</v>
+        <v>5730.023742654016</v>
       </c>
       <c r="S10">
-        <v>0.09981429138077806</v>
+        <v>0.07722749183993208</v>
       </c>
       <c r="T10">
-        <v>0.1102330253960443</v>
+        <v>0.09396465416246248</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>105.757912</v>
       </c>
       <c r="I11">
-        <v>0.2648182598168894</v>
+        <v>0.3474257082297993</v>
       </c>
       <c r="J11">
-        <v>0.2803950511268952</v>
+        <v>0.378592598688601</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.159665</v>
+        <v>8.242952500000001</v>
       </c>
       <c r="N11">
-        <v>10.31933</v>
+        <v>16.485905</v>
       </c>
       <c r="O11">
-        <v>0.04936969984612973</v>
+        <v>0.1014543042825354</v>
       </c>
       <c r="P11">
-        <v>0.03432936814698325</v>
+        <v>0.07551994056290817</v>
       </c>
       <c r="Q11">
-        <v>181.8917990064933</v>
+        <v>290.5858150383934</v>
       </c>
       <c r="R11">
-        <v>1091.35079403896</v>
+        <v>1743.51489023036</v>
       </c>
       <c r="S11">
-        <v>0.01307399800093423</v>
+        <v>0.03524783351832143</v>
       </c>
       <c r="T11">
-        <v>0.009625784936727375</v>
+        <v>0.02859129055052009</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>105.757912</v>
       </c>
       <c r="I12">
-        <v>0.2648182598168894</v>
+        <v>0.3474257082297993</v>
       </c>
       <c r="J12">
-        <v>0.2803950511268952</v>
+        <v>0.378592598688601</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.898325</v>
+        <v>5.489231</v>
       </c>
       <c r="N12">
-        <v>26.694975</v>
+        <v>16.467693</v>
       </c>
       <c r="O12">
-        <v>0.08514266611946944</v>
+        <v>0.06756148505661365</v>
       </c>
       <c r="P12">
-        <v>0.08880631053077227</v>
+        <v>0.0754365135895311</v>
       </c>
       <c r="Q12">
-        <v>313.6894240991333</v>
+        <v>193.5098696818907</v>
       </c>
       <c r="R12">
-        <v>2823.2048168922</v>
+        <v>1741.588827137016</v>
       </c>
       <c r="S12">
-        <v>0.02254733267792833</v>
+        <v>0.023472596794851</v>
       </c>
       <c r="T12">
-        <v>0.02490084998166682</v>
+        <v>0.02855970571586855</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>105.757912</v>
       </c>
       <c r="I13">
-        <v>0.2648182598168894</v>
+        <v>0.3474257082297993</v>
       </c>
       <c r="J13">
-        <v>0.2803950511268952</v>
+        <v>0.378592598688601</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>42.72912033333333</v>
+        <v>31.69646066666666</v>
       </c>
       <c r="N13">
-        <v>128.187361</v>
+        <v>95.08938199999999</v>
       </c>
       <c r="O13">
-        <v>0.4088489941780765</v>
+        <v>0.390120210586609</v>
       </c>
       <c r="P13">
-        <v>0.4264415526549925</v>
+        <v>0.4355929793847331</v>
       </c>
       <c r="Q13">
-        <v>1506.314182683359</v>
+        <v>1117.383832632265</v>
       </c>
       <c r="R13">
-        <v>13556.82764415023</v>
+        <v>10056.45449369038</v>
       </c>
       <c r="S13">
-        <v>0.1082706791661238</v>
+        <v>0.1355377904578111</v>
       </c>
       <c r="T13">
-        <v>0.1195721009593292</v>
+        <v>0.1649122780357763</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.66513466666666</v>
+        <v>10.191424</v>
       </c>
       <c r="H14">
-        <v>88.99540399999999</v>
+        <v>30.574272</v>
       </c>
       <c r="I14">
-        <v>0.2228448687506334</v>
+        <v>0.100439654133967</v>
       </c>
       <c r="J14">
-        <v>0.2359527564674186</v>
+        <v>0.1094499018616416</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.774897999999999</v>
+        <v>17.202144</v>
       </c>
       <c r="N14">
-        <v>15.549796</v>
+        <v>34.404288</v>
       </c>
       <c r="O14">
-        <v>0.07439327564760004</v>
+        <v>0.2117240820795693</v>
       </c>
       <c r="P14">
-        <v>0.05172958627105515</v>
+        <v>0.1576018899095424</v>
       </c>
       <c r="Q14">
-        <v>230.6433961895973</v>
+        <v>175.314343213056</v>
       </c>
       <c r="R14">
-        <v>1383.860377137584</v>
+        <v>1051.886059278336</v>
       </c>
       <c r="S14">
-        <v>0.01657815974761912</v>
+        <v>0.02126549357590359</v>
       </c>
       <c r="T14">
-        <v>0.0122057384715746</v>
+        <v>0.01724951138380866</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.66513466666666</v>
+        <v>10.191424</v>
       </c>
       <c r="H15">
-        <v>88.99540399999999</v>
+        <v>30.574272</v>
       </c>
       <c r="I15">
-        <v>0.2228448687506334</v>
+        <v>0.100439654133967</v>
       </c>
       <c r="J15">
-        <v>0.2359527564674186</v>
+        <v>0.1094499018616416</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.670866</v>
       </c>
       <c r="O15">
-        <v>0.005329167229726697</v>
+        <v>0.006855009277292444</v>
       </c>
       <c r="P15">
-        <v>0.005558478509581273</v>
+        <v>0.007654035432606467</v>
       </c>
       <c r="Q15">
-        <v>16.52215496665156</v>
+        <v>5.676167951061334</v>
       </c>
       <c r="R15">
-        <v>148.699394699864</v>
+        <v>51.08551155955201</v>
       </c>
       <c r="S15">
-        <v>0.001187577571858623</v>
+        <v>0.0006885147608963885</v>
       </c>
       <c r="T15">
-        <v>0.00131153832610061</v>
+        <v>0.0008377334269443057</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.66513466666666</v>
+        <v>10.191424</v>
       </c>
       <c r="H16">
-        <v>88.99540399999999</v>
+        <v>30.574272</v>
       </c>
       <c r="I16">
-        <v>0.2228448687506334</v>
+        <v>0.100439654133967</v>
       </c>
       <c r="J16">
-        <v>0.2359527564674186</v>
+        <v>0.1094499018616416</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>39.39179933333333</v>
+        <v>18.06018933333333</v>
       </c>
       <c r="N16">
-        <v>118.175398</v>
+        <v>54.180568</v>
       </c>
       <c r="O16">
-        <v>0.3769161969789976</v>
+        <v>0.2222849087173801</v>
       </c>
       <c r="P16">
-        <v>0.3931347038866155</v>
+        <v>0.2481946411206788</v>
       </c>
       <c r="Q16">
-        <v>1168.563031985643</v>
+        <v>184.0590470162774</v>
       </c>
       <c r="R16">
-        <v>10517.06728787079</v>
+        <v>1656.531423146496</v>
       </c>
       <c r="S16">
-        <v>0.08399384044577261</v>
+        <v>0.0223262193507741</v>
       </c>
       <c r="T16">
-        <v>0.09276121704504932</v>
+        <v>0.02716487911324366</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.66513466666666</v>
+        <v>10.191424</v>
       </c>
       <c r="H17">
-        <v>88.99540399999999</v>
+        <v>30.574272</v>
       </c>
       <c r="I17">
-        <v>0.2228448687506334</v>
+        <v>0.100439654133967</v>
       </c>
       <c r="J17">
-        <v>0.2359527564674186</v>
+        <v>0.1094499018616416</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.159665</v>
+        <v>8.242952500000001</v>
       </c>
       <c r="N17">
-        <v>10.31933</v>
+        <v>16.485905</v>
       </c>
       <c r="O17">
-        <v>0.04936969984612973</v>
+        <v>0.1014543042825354</v>
       </c>
       <c r="P17">
-        <v>0.03432936814698325</v>
+        <v>0.07551994056290817</v>
       </c>
       <c r="Q17">
-        <v>153.0621570598867</v>
+        <v>84.00742393936002</v>
       </c>
       <c r="R17">
-        <v>918.3729423593199</v>
+        <v>504.0445436361601</v>
       </c>
       <c r="S17">
-        <v>0.01100178428246895</v>
+        <v>0.01019003523254011</v>
       </c>
       <c r="T17">
-        <v>0.008100109042065496</v>
+        <v>0.008265650083207308</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>29.66513466666666</v>
+        <v>10.191424</v>
       </c>
       <c r="H18">
-        <v>88.99540399999999</v>
+        <v>30.574272</v>
       </c>
       <c r="I18">
-        <v>0.2228448687506334</v>
+        <v>0.100439654133967</v>
       </c>
       <c r="J18">
-        <v>0.2359527564674186</v>
+        <v>0.1094499018616416</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.898325</v>
+        <v>5.489231</v>
       </c>
       <c r="N18">
-        <v>26.694975</v>
+        <v>16.467693</v>
       </c>
       <c r="O18">
-        <v>0.08514266611946944</v>
+        <v>0.06756148505661365</v>
       </c>
       <c r="P18">
-        <v>0.08880631053077227</v>
+        <v>0.0754365135895311</v>
       </c>
       <c r="Q18">
-        <v>263.9700094327666</v>
+        <v>55.94308055494401</v>
       </c>
       <c r="R18">
-        <v>2375.7300848949</v>
+        <v>503.4877249944961</v>
       </c>
       <c r="S18">
-        <v>0.01897360625647217</v>
+        <v>0.006785852191863458</v>
       </c>
       <c r="T18">
-        <v>0.02095409376143726</v>
+        <v>0.008256519009158575</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>29.66513466666666</v>
+        <v>10.191424</v>
       </c>
       <c r="H19">
-        <v>88.99540399999999</v>
+        <v>30.574272</v>
       </c>
       <c r="I19">
-        <v>0.2228448687506334</v>
+        <v>0.100439654133967</v>
       </c>
       <c r="J19">
-        <v>0.2359527564674186</v>
+        <v>0.1094499018616416</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>42.72912033333333</v>
+        <v>31.69646066666666</v>
       </c>
       <c r="N19">
-        <v>128.187361</v>
+        <v>95.08938199999999</v>
       </c>
       <c r="O19">
-        <v>0.4088489941780765</v>
+        <v>0.390120210586609</v>
       </c>
       <c r="P19">
-        <v>0.4264415526549925</v>
+        <v>0.4355929793847331</v>
       </c>
       <c r="Q19">
-        <v>1267.565108876538</v>
+        <v>323.0320699533227</v>
       </c>
       <c r="R19">
-        <v>11408.08597988884</v>
+        <v>2907.288629579904</v>
       </c>
       <c r="S19">
-        <v>0.09110990044644196</v>
+        <v>0.03918353902198939</v>
       </c>
       <c r="T19">
-        <v>0.1006200598211913</v>
+        <v>0.04767560884527913</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.534637500000001</v>
+        <v>4.4341055</v>
       </c>
       <c r="H20">
-        <v>9.069275000000001</v>
+        <v>8.868211000000001</v>
       </c>
       <c r="I20">
-        <v>0.03406425454911809</v>
+        <v>0.04369948917967902</v>
       </c>
       <c r="J20">
-        <v>0.02404529154574149</v>
+        <v>0.03174645740177659</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.774897999999999</v>
+        <v>17.202144</v>
       </c>
       <c r="N20">
-        <v>15.549796</v>
+        <v>34.404288</v>
       </c>
       <c r="O20">
-        <v>0.07439327564760004</v>
+        <v>0.2117240820795693</v>
       </c>
       <c r="P20">
-        <v>0.05172958627105515</v>
+        <v>0.1576018899095424</v>
       </c>
       <c r="Q20">
-        <v>35.256344029475</v>
+        <v>76.27612132219201</v>
       </c>
       <c r="R20">
-        <v>141.0253761179</v>
+        <v>305.104485288768</v>
       </c>
       <c r="S20">
-        <v>0.002534151478402556</v>
+        <v>0.009252234233913611</v>
       </c>
       <c r="T20">
-        <v>0.001243852983428107</v>
+        <v>0.005003301684452772</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.534637500000001</v>
+        <v>4.4341055</v>
       </c>
       <c r="H21">
-        <v>9.069275000000001</v>
+        <v>8.868211000000001</v>
       </c>
       <c r="I21">
-        <v>0.03406425454911809</v>
+        <v>0.04369948917967902</v>
       </c>
       <c r="J21">
-        <v>0.02404529154574149</v>
+        <v>0.03174645740177659</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.670866</v>
       </c>
       <c r="O21">
-        <v>0.005329167229726697</v>
+        <v>0.006855009277292444</v>
       </c>
       <c r="P21">
-        <v>0.005558478509581273</v>
+        <v>0.007654035432606467</v>
       </c>
       <c r="Q21">
-        <v>2.525590540358334</v>
+        <v>2.469598706787667</v>
       </c>
       <c r="R21">
-        <v>15.15354324215</v>
+        <v>14.817592240726</v>
       </c>
       <c r="S21">
-        <v>0.0001815341090482287</v>
+        <v>0.0002995604037396404</v>
       </c>
       <c r="T21">
-        <v>0.0001336552363136203</v>
+        <v>0.0002429885098129299</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.534637500000001</v>
+        <v>4.4341055</v>
       </c>
       <c r="H22">
-        <v>9.069275000000001</v>
+        <v>8.868211000000001</v>
       </c>
       <c r="I22">
-        <v>0.03406425454911809</v>
+        <v>0.04369948917967902</v>
       </c>
       <c r="J22">
-        <v>0.02404529154574149</v>
+        <v>0.03174645740177659</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>39.39179933333333</v>
+        <v>18.06018933333333</v>
       </c>
       <c r="N22">
-        <v>118.175398</v>
+        <v>54.180568</v>
       </c>
       <c r="O22">
-        <v>0.3769161969789976</v>
+        <v>0.2222849087173801</v>
       </c>
       <c r="P22">
-        <v>0.3931347038866155</v>
+        <v>0.2481946411206788</v>
       </c>
       <c r="Q22">
-        <v>178.6275304494083</v>
+        <v>80.08078485397468</v>
       </c>
       <c r="R22">
-        <v>1071.76518269645</v>
+        <v>480.4847091238481</v>
       </c>
       <c r="S22">
-        <v>0.01283936927757811</v>
+        <v>0.009713736963301091</v>
       </c>
       <c r="T22">
-        <v>0.009453038571702418</v>
+        <v>0.007879300601686857</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.534637500000001</v>
+        <v>4.4341055</v>
       </c>
       <c r="H23">
-        <v>9.069275000000001</v>
+        <v>8.868211000000001</v>
       </c>
       <c r="I23">
-        <v>0.03406425454911809</v>
+        <v>0.04369948917967902</v>
       </c>
       <c r="J23">
-        <v>0.02404529154574149</v>
+        <v>0.03174645740177659</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.159665</v>
+        <v>8.242952500000001</v>
       </c>
       <c r="N23">
-        <v>10.31933</v>
+        <v>16.485905</v>
       </c>
       <c r="O23">
-        <v>0.04936969984612973</v>
+        <v>0.1014543042825354</v>
       </c>
       <c r="P23">
-        <v>0.03432936814698325</v>
+        <v>0.07551994056290817</v>
       </c>
       <c r="Q23">
-        <v>23.3972103964375</v>
+        <v>36.55012101648876</v>
       </c>
       <c r="R23">
-        <v>93.58884158575002</v>
+        <v>146.200484065955</v>
       </c>
       <c r="S23">
-        <v>0.001681742022572119</v>
+        <v>0.004433501272226519</v>
       </c>
       <c r="T23">
-        <v>0.0008254596656753035</v>
+        <v>0.002397490576065064</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.534637500000001</v>
+        <v>4.4341055</v>
       </c>
       <c r="H24">
-        <v>9.069275000000001</v>
+        <v>8.868211000000001</v>
       </c>
       <c r="I24">
-        <v>0.03406425454911809</v>
+        <v>0.04369948917967902</v>
       </c>
       <c r="J24">
-        <v>0.02404529154574149</v>
+        <v>0.03174645740177659</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.898325</v>
+        <v>5.489231</v>
       </c>
       <c r="N24">
-        <v>26.694975</v>
+        <v>16.467693</v>
       </c>
       <c r="O24">
-        <v>0.08514266611946944</v>
+        <v>0.06756148505661365</v>
       </c>
       <c r="P24">
-        <v>0.08880631053077227</v>
+        <v>0.0754365135895311</v>
       </c>
       <c r="Q24">
-        <v>40.35067823218751</v>
+        <v>24.3398293678705</v>
       </c>
       <c r="R24">
-        <v>242.104069393125</v>
+        <v>146.038976207223</v>
       </c>
       <c r="S24">
-        <v>0.00290032145168418</v>
+        <v>0.002952402385194534</v>
       </c>
       <c r="T24">
-        <v>0.002135373627814072</v>
+        <v>0.00239484206520859</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.534637500000001</v>
+        <v>4.4341055</v>
       </c>
       <c r="H25">
-        <v>9.069275000000001</v>
+        <v>8.868211000000001</v>
       </c>
       <c r="I25">
-        <v>0.03406425454911809</v>
+        <v>0.04369948917967902</v>
       </c>
       <c r="J25">
-        <v>0.02404529154574149</v>
+        <v>0.03174645740177659</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>42.72912033333333</v>
+        <v>31.69646066666666</v>
       </c>
       <c r="N25">
-        <v>128.187361</v>
+        <v>95.08938199999999</v>
       </c>
       <c r="O25">
-        <v>0.4088489941780765</v>
+        <v>0.390120210586609</v>
       </c>
       <c r="P25">
-        <v>0.4264415526549925</v>
+        <v>0.4355929793847331</v>
       </c>
       <c r="Q25">
-        <v>193.7610714055459</v>
+        <v>140.5454505726003</v>
       </c>
       <c r="R25">
-        <v>1162.566428433275</v>
+        <v>843.2727034356019</v>
       </c>
       <c r="S25">
-        <v>0.0139271362098329</v>
+        <v>0.01704805392130362</v>
       </c>
       <c r="T25">
-        <v>0.01025391146080796</v>
+        <v>0.01382853396455038</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>13.123757</v>
+        <v>6.683314333333333</v>
       </c>
       <c r="H26">
-        <v>39.371271</v>
+        <v>20.049943</v>
       </c>
       <c r="I26">
-        <v>0.09858582942710863</v>
+        <v>0.06586614197472153</v>
       </c>
       <c r="J26">
-        <v>0.1043847153958169</v>
+        <v>0.07177486658329946</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.774897999999999</v>
+        <v>17.202144</v>
       </c>
       <c r="N26">
-        <v>15.549796</v>
+        <v>34.404288</v>
       </c>
       <c r="O26">
-        <v>0.07439327564760004</v>
+        <v>0.2117240820795693</v>
       </c>
       <c r="P26">
-        <v>0.05172958627105515</v>
+        <v>0.1576018899095424</v>
       </c>
       <c r="Q26">
-        <v>102.035872051786</v>
+        <v>114.967335559264</v>
       </c>
       <c r="R26">
-        <v>612.2152323107159</v>
+        <v>689.8040133555839</v>
       </c>
       <c r="S26">
-        <v>0.007334122783518172</v>
+        <v>0.01394544844972051</v>
       </c>
       <c r="T26">
-        <v>0.005399778140447447</v>
+        <v>0.01131185462153326</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>13.123757</v>
+        <v>6.683314333333333</v>
       </c>
       <c r="H27">
-        <v>39.371271</v>
+        <v>20.049943</v>
       </c>
       <c r="I27">
-        <v>0.09858582942710863</v>
+        <v>0.06586614197472153</v>
       </c>
       <c r="J27">
-        <v>0.1043847153958169</v>
+        <v>0.07177486658329946</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.670866</v>
       </c>
       <c r="O27">
-        <v>0.005329167229726697</v>
+        <v>0.006855009277292444</v>
       </c>
       <c r="P27">
-        <v>0.005558478509581273</v>
+        <v>0.007654035432606467</v>
       </c>
       <c r="Q27">
-        <v>7.309346454520667</v>
+        <v>3.722307562293111</v>
       </c>
       <c r="R27">
-        <v>65.78411809068601</v>
+        <v>33.500768060638</v>
       </c>
       <c r="S27">
-        <v>0.0005253803714983732</v>
+        <v>0.0004515130142961773</v>
       </c>
       <c r="T27">
-        <v>0.0005802201972564054</v>
+        <v>0.000549367371999176</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>13.123757</v>
+        <v>6.683314333333333</v>
       </c>
       <c r="H28">
-        <v>39.371271</v>
+        <v>20.049943</v>
       </c>
       <c r="I28">
-        <v>0.09858582942710863</v>
+        <v>0.06586614197472153</v>
       </c>
       <c r="J28">
-        <v>0.1043847153958169</v>
+        <v>0.07177486658329946</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>39.39179933333333</v>
+        <v>18.06018933333333</v>
       </c>
       <c r="N28">
-        <v>118.175398</v>
+        <v>54.180568</v>
       </c>
       <c r="O28">
-        <v>0.3769161969789976</v>
+        <v>0.2222849087173801</v>
       </c>
       <c r="P28">
-        <v>0.3931347038866155</v>
+        <v>0.2481946411206788</v>
       </c>
       <c r="Q28">
-        <v>516.9684022434286</v>
+        <v>120.7019222341804</v>
       </c>
       <c r="R28">
-        <v>4652.715620190858</v>
+        <v>1086.317300107624</v>
       </c>
       <c r="S28">
-        <v>0.03715859590368593</v>
+        <v>0.01464104935641698</v>
       </c>
       <c r="T28">
-        <v>0.0410372541774231</v>
+        <v>0.01781413725312661</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>13.123757</v>
+        <v>6.683314333333333</v>
       </c>
       <c r="H29">
-        <v>39.371271</v>
+        <v>20.049943</v>
       </c>
       <c r="I29">
-        <v>0.09858582942710863</v>
+        <v>0.06586614197472153</v>
       </c>
       <c r="J29">
-        <v>0.1043847153958169</v>
+        <v>0.07177486658329946</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.159665</v>
+        <v>8.242952500000001</v>
       </c>
       <c r="N29">
-        <v>10.31933</v>
+        <v>16.485905</v>
       </c>
       <c r="O29">
-        <v>0.04936969984612973</v>
+        <v>0.1014543042825354</v>
       </c>
       <c r="P29">
-        <v>0.03432936814698325</v>
+        <v>0.07551994056290817</v>
       </c>
       <c r="Q29">
-        <v>67.714189661405</v>
+        <v>55.09024259223584</v>
       </c>
       <c r="R29">
-        <v>406.28513796843</v>
+        <v>330.541455553415</v>
       </c>
       <c r="S29">
-        <v>0.004867152807898097</v>
+        <v>0.006682403609820077</v>
       </c>
       <c r="T29">
-        <v>0.003583461323741067</v>
+        <v>0.005420433658281439</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>13.123757</v>
+        <v>6.683314333333333</v>
       </c>
       <c r="H30">
-        <v>39.371271</v>
+        <v>20.049943</v>
       </c>
       <c r="I30">
-        <v>0.09858582942710863</v>
+        <v>0.06586614197472153</v>
       </c>
       <c r="J30">
-        <v>0.1043847153958169</v>
+        <v>0.07177486658329946</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.898325</v>
+        <v>5.489231</v>
       </c>
       <c r="N30">
-        <v>26.694975</v>
+        <v>16.467693</v>
       </c>
       <c r="O30">
-        <v>0.08514266611946944</v>
+        <v>0.06756148505661365</v>
       </c>
       <c r="P30">
-        <v>0.08880631053077227</v>
+        <v>0.0754365135895311</v>
       </c>
       <c r="Q30">
-        <v>116.779455007025</v>
+        <v>36.68625622127767</v>
       </c>
       <c r="R30">
-        <v>1051.015095063225</v>
+        <v>330.176305991499</v>
       </c>
       <c r="S30">
-        <v>0.008393860359023274</v>
+        <v>0.004450014366761942</v>
       </c>
       <c r="T30">
-        <v>0.009270021450107196</v>
+        <v>0.005414445698397851</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>13.123757</v>
+        <v>6.683314333333333</v>
       </c>
       <c r="H31">
-        <v>39.371271</v>
+        <v>20.049943</v>
       </c>
       <c r="I31">
-        <v>0.09858582942710863</v>
+        <v>0.06586614197472153</v>
       </c>
       <c r="J31">
-        <v>0.1043847153958169</v>
+        <v>0.07177486658329946</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>42.72912033333333</v>
+        <v>31.69646066666666</v>
       </c>
       <c r="N31">
-        <v>128.187361</v>
+        <v>95.08938199999999</v>
       </c>
       <c r="O31">
-        <v>0.4088489941780765</v>
+        <v>0.390120210586609</v>
       </c>
       <c r="P31">
-        <v>0.4264415526549925</v>
+        <v>0.4355929793847331</v>
       </c>
       <c r="Q31">
-        <v>560.7665920784257</v>
+        <v>211.8374098894695</v>
       </c>
       <c r="R31">
-        <v>5046.899328705831</v>
+        <v>1906.536689005226</v>
       </c>
       <c r="S31">
-        <v>0.04030671720148478</v>
+        <v>0.02569571317770585</v>
       </c>
       <c r="T31">
-        <v>0.04451398010684163</v>
+        <v>0.03126462797996113</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>32.892914</v>
+        <v>24.281263</v>
       </c>
       <c r="H32">
-        <v>98.678742</v>
+        <v>72.843789</v>
       </c>
       <c r="I32">
-        <v>0.2470919881375854</v>
+        <v>0.2392994009135417</v>
       </c>
       <c r="J32">
-        <v>0.2616261080138164</v>
+        <v>0.2607664888073256</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.774897999999999</v>
+        <v>17.202144</v>
       </c>
       <c r="N32">
-        <v>15.549796</v>
+        <v>34.404288</v>
       </c>
       <c r="O32">
-        <v>0.07439327564760004</v>
+        <v>0.2117240820795693</v>
       </c>
       <c r="P32">
-        <v>0.05172958627105515</v>
+        <v>0.1576018899095424</v>
       </c>
       <c r="Q32">
-        <v>255.739051272772</v>
+        <v>417.689782627872</v>
       </c>
       <c r="R32">
-        <v>1534.434307636632</v>
+        <v>2506.138695767232</v>
       </c>
       <c r="S32">
-        <v>0.01838198238383291</v>
+        <v>0.05066544600061047</v>
       </c>
       <c r="T32">
-        <v>0.01353381032526111</v>
+        <v>0.04109729146111005</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>32.892914</v>
+        <v>24.281263</v>
       </c>
       <c r="H33">
-        <v>98.678742</v>
+        <v>72.843789</v>
       </c>
       <c r="I33">
-        <v>0.2470919881375854</v>
+        <v>0.2392994009135417</v>
       </c>
       <c r="J33">
-        <v>0.2616261080138164</v>
+        <v>0.2607664888073256</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.670866</v>
       </c>
       <c r="O33">
-        <v>0.005329167229726697</v>
+        <v>0.006855009277292444</v>
       </c>
       <c r="P33">
-        <v>0.005558478509581273</v>
+        <v>0.007654035432606467</v>
       </c>
       <c r="Q33">
-        <v>18.31988388117466</v>
+        <v>13.52357892791933</v>
       </c>
       <c r="R33">
-        <v>164.878954930572</v>
+        <v>121.712210351274</v>
       </c>
       <c r="S33">
-        <v>0.001316794525910838</v>
+        <v>0.001640399613312852</v>
       </c>
       <c r="T33">
-        <v>0.001454243098940187</v>
+        <v>0.001995915944967648</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>32.892914</v>
+        <v>24.281263</v>
       </c>
       <c r="H34">
-        <v>98.678742</v>
+        <v>72.843789</v>
       </c>
       <c r="I34">
-        <v>0.2470919881375854</v>
+        <v>0.2392994009135417</v>
       </c>
       <c r="J34">
-        <v>0.2616261080138164</v>
+        <v>0.2607664888073256</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>39.39179933333333</v>
+        <v>18.06018933333333</v>
       </c>
       <c r="N34">
-        <v>118.175398</v>
+        <v>54.180568</v>
       </c>
       <c r="O34">
-        <v>0.3769161969789976</v>
+        <v>0.2222849087173801</v>
       </c>
       <c r="P34">
-        <v>0.3931347038866155</v>
+        <v>0.2481946411206788</v>
       </c>
       <c r="Q34">
-        <v>1295.71106777659</v>
+        <v>438.5242070324613</v>
       </c>
       <c r="R34">
-        <v>11661.39960998932</v>
+        <v>3946.717863292152</v>
       </c>
       <c r="S34">
-        <v>0.09313297247279827</v>
+        <v>0.05319264548819037</v>
       </c>
       <c r="T34">
-        <v>0.1028543025030194</v>
+        <v>0.06472084510583367</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>32.892914</v>
+        <v>24.281263</v>
       </c>
       <c r="H35">
-        <v>98.678742</v>
+        <v>72.843789</v>
       </c>
       <c r="I35">
-        <v>0.2470919881375854</v>
+        <v>0.2392994009135417</v>
       </c>
       <c r="J35">
-        <v>0.2616261080138164</v>
+        <v>0.2607664888073256</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>5.159665</v>
+        <v>8.242952500000001</v>
       </c>
       <c r="N35">
-        <v>10.31933</v>
+        <v>16.485905</v>
       </c>
       <c r="O35">
-        <v>0.04936969984612973</v>
+        <v>0.1014543042825354</v>
       </c>
       <c r="P35">
-        <v>0.03432936814698325</v>
+        <v>0.07551994056290817</v>
       </c>
       <c r="Q35">
-        <v>169.71641711381</v>
+        <v>200.1492975490075</v>
       </c>
       <c r="R35">
-        <v>1018.29850268286</v>
+        <v>1200.895785294045</v>
       </c>
       <c r="S35">
-        <v>0.01219885728873604</v>
+        <v>0.0242779542349109</v>
       </c>
       <c r="T35">
-        <v>0.00898145897886871</v>
+        <v>0.01969306973552749</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>32.892914</v>
+        <v>24.281263</v>
       </c>
       <c r="H36">
-        <v>98.678742</v>
+        <v>72.843789</v>
       </c>
       <c r="I36">
-        <v>0.2470919881375854</v>
+        <v>0.2392994009135417</v>
       </c>
       <c r="J36">
-        <v>0.2616261080138164</v>
+        <v>0.2607664888073256</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.898325</v>
+        <v>5.489231</v>
       </c>
       <c r="N36">
-        <v>26.694975</v>
+        <v>16.467693</v>
       </c>
       <c r="O36">
-        <v>0.08514266611946944</v>
+        <v>0.06756148505661365</v>
       </c>
       <c r="P36">
-        <v>0.08880631053077227</v>
+        <v>0.0754365135895311</v>
       </c>
       <c r="Q36">
-        <v>292.69183896905</v>
+        <v>133.285461578753</v>
       </c>
       <c r="R36">
-        <v>2634.22655072145</v>
+        <v>1199.569154208777</v>
       </c>
       <c r="S36">
-        <v>0.02103807064679434</v>
+        <v>0.01616742289887685</v>
       </c>
       <c r="T36">
-        <v>0.02323404939123235</v>
+        <v>0.01967131477660813</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>32.892914</v>
+        <v>24.281263</v>
       </c>
       <c r="H37">
-        <v>98.678742</v>
+        <v>72.843789</v>
       </c>
       <c r="I37">
-        <v>0.2470919881375854</v>
+        <v>0.2392994009135417</v>
       </c>
       <c r="J37">
-        <v>0.2616261080138164</v>
+        <v>0.2607664888073256</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>42.72912033333333</v>
+        <v>31.69646066666666</v>
       </c>
       <c r="N37">
-        <v>128.187361</v>
+        <v>95.08938199999999</v>
       </c>
       <c r="O37">
-        <v>0.4088489941780765</v>
+        <v>0.390120210586609</v>
       </c>
       <c r="P37">
-        <v>0.4264415526549925</v>
+        <v>0.4355929793847331</v>
       </c>
       <c r="Q37">
-        <v>1405.485280419985</v>
+        <v>769.6300976164886</v>
       </c>
       <c r="R37">
-        <v>12649.36752377986</v>
+        <v>6926.670878548397</v>
       </c>
       <c r="S37">
-        <v>0.101023310819513</v>
+        <v>0.09335553267764025</v>
       </c>
       <c r="T37">
-        <v>0.1115682437164946</v>
+        <v>0.1135880517832786</v>
       </c>
     </row>
   </sheetData>
